--- a/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ADAC71-BC90-4262-B937-90E45838ACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,12 +247,42 @@
   </si>
   <si>
     <t>9/11,12/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/5,6/2023</t>
+  </si>
+  <si>
+    <t>10/31 , 11/3/2023</t>
+  </si>
+  <si>
+    <t>12/05,07/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/6,12,13,14/2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>12/15,18-22/2023</t>
+  </si>
+  <si>
+    <t>12/27,28/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -631,11 +662,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -643,8 +671,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -654,9 +688,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,7 +1199,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1185,25 +1216,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K98" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K107" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1215,25 +1246,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1540,95 +1571,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K98"/>
+  <dimension ref="A2:K107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41436</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1636,7 +1667,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1649,24 +1680,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1710,7 +1741,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.25</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1720,12 +1751,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>70.25</v>
+        <v>73.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1747,7 +1778,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1767,7 +1798,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1787,7 +1818,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1807,7 +1838,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1827,7 +1858,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1847,7 +1878,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1867,7 +1898,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1887,7 +1918,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1911,7 +1942,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1935,7 +1966,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1955,7 +1986,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1975,7 +2006,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -1999,7 +2030,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -2019,7 +2050,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>46</v>
       </c>
@@ -2037,7 +2068,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43466</v>
       </c>
@@ -2057,7 +2088,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43497</v>
       </c>
@@ -2077,7 +2108,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43525</v>
       </c>
@@ -2097,7 +2128,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43556</v>
       </c>
@@ -2117,7 +2148,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43586</v>
       </c>
@@ -2137,7 +2168,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43617</v>
       </c>
@@ -2157,7 +2188,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43647</v>
       </c>
@@ -2177,7 +2208,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43678</v>
       </c>
@@ -2203,7 +2234,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43709</v>
       </c>
@@ -2223,7 +2254,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43739</v>
       </c>
@@ -2243,7 +2274,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43770</v>
       </c>
@@ -2263,7 +2294,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>43800</v>
       </c>
@@ -2289,7 +2320,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>66</v>
@@ -2309,7 +2340,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>53</v>
       </c>
@@ -2327,7 +2358,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43831</v>
       </c>
@@ -2347,7 +2378,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43862</v>
       </c>
@@ -2367,7 +2398,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43891</v>
       </c>
@@ -2387,7 +2418,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43922</v>
       </c>
@@ -2407,7 +2438,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>43952</v>
       </c>
@@ -2427,7 +2458,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>43983</v>
       </c>
@@ -2447,7 +2478,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -2467,7 +2498,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -2487,7 +2518,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -2507,7 +2538,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44105</v>
       </c>
@@ -2527,7 +2558,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>44136</v>
       </c>
@@ -2547,7 +2578,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44166</v>
       </c>
@@ -2571,7 +2602,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>58</v>
       </c>
@@ -2589,7 +2620,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -2609,7 +2640,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -2629,7 +2660,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44256</v>
       </c>
@@ -2649,7 +2680,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44287</v>
       </c>
@@ -2669,7 +2700,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44317</v>
       </c>
@@ -2689,7 +2720,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44348</v>
       </c>
@@ -2709,7 +2740,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44378</v>
       </c>
@@ -2729,7 +2760,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44409</v>
       </c>
@@ -2749,7 +2780,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44440</v>
       </c>
@@ -2769,7 +2800,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44470</v>
       </c>
@@ -2789,7 +2820,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
         <v>44501</v>
       </c>
@@ -2809,7 +2840,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44531</v>
       </c>
@@ -2833,7 +2864,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>61</v>
       </c>
@@ -2851,7 +2882,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44562</v>
       </c>
@@ -2871,7 +2902,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44593</v>
       </c>
@@ -2891,7 +2922,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44621</v>
       </c>
@@ -2911,7 +2942,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44652</v>
       </c>
@@ -2931,7 +2962,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44682</v>
       </c>
@@ -2955,7 +2986,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44713</v>
       </c>
@@ -2977,7 +3008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44743</v>
       </c>
@@ -3001,7 +3032,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44774</v>
       </c>
@@ -3027,7 +3058,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="20" t="s">
         <v>52</v>
@@ -3049,7 +3080,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44805</v>
       </c>
@@ -3075,7 +3106,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
         <v>44835</v>
       </c>
@@ -3095,7 +3126,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44866</v>
       </c>
@@ -3110,40 +3141,40 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="40">
-        <v>1</v>
-      </c>
+      <c r="H76" s="40"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="48">
         <v>44890</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44896</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="40"/>
+      <c r="D77" s="40">
+        <v>2</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H77" s="40">
-        <v>1</v>
-      </c>
+      <c r="H77" s="40"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="48">
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>65</v>
       </c>
@@ -3161,7 +3192,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>44927</v>
       </c>
@@ -3181,7 +3212,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>44958</v>
       </c>
@@ -3205,7 +3236,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="20" t="s">
         <v>47</v>
@@ -3227,7 +3258,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>44986</v>
       </c>
@@ -3253,7 +3284,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="20" t="s">
         <v>47</v>
@@ -3275,7 +3306,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45017</v>
       </c>
@@ -3301,7 +3332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20" t="s">
         <v>47</v>
@@ -3323,7 +3354,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20" t="s">
         <v>47</v>
@@ -3345,7 +3376,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45047</v>
       </c>
@@ -3369,7 +3400,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20" t="s">
         <v>47</v>
@@ -3391,7 +3422,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>45078</v>
       </c>
@@ -3411,7 +3442,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>45108</v>
       </c>
@@ -3431,7 +3462,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <v>45139</v>
       </c>
@@ -3450,7 +3481,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>45170</v>
       </c>
@@ -3476,7 +3507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20" t="s">
         <v>47</v>
@@ -3498,40 +3529,56 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="40"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="40"/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="40">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+      <c r="K94" s="48">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="41">
+        <v>45231</v>
+      </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="40"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="40"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="41">
+        <v>45261</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
@@ -3546,8 +3593,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="40"/>
@@ -3562,41 +3611,205 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="44"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="41">
+        <v>45292</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="40"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="15"/>
+      <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="44"/>
+      <c r="H98" s="40"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="15"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="41">
+        <v>45323</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="44"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="15"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="41">
+        <v>45352</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="40"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="41">
+        <v>45383</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="40"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="41">
+        <v>45413</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="40"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="41">
+        <v>45444</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="40"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="41">
+        <v>45474</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="40"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="41">
+        <v>45505</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="40"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="41">
+        <v>45536</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="40"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="41">
+        <v>45566</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="40"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3619,95 +3832,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4296" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41436</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3715,7 +3928,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3728,24 +3941,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3789,7 +4002,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.956000000000003</v>
+        <v>8.9560000000000031</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3804,7 +4017,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>43101</v>
       </c>
@@ -3826,7 +4039,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>46</v>
       </c>
@@ -3844,7 +4057,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43466</v>
       </c>
@@ -3866,7 +4079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43678</v>
       </c>
@@ -3890,7 +4103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -3910,7 +4123,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43770</v>
       </c>
@@ -3934,7 +4147,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -3956,7 +4169,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43800</v>
       </c>
@@ -3980,7 +4193,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -4002,7 +4215,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +4233,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43831</v>
       </c>
@@ -4042,7 +4255,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43862</v>
       </c>
@@ -4066,7 +4279,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -4086,7 +4299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -4108,7 +4321,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43891</v>
       </c>
@@ -4132,7 +4345,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>44166</v>
       </c>
@@ -4154,7 +4367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>58</v>
       </c>
@@ -4172,7 +4385,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>44378</v>
       </c>
@@ -4196,7 +4409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>44531</v>
       </c>
@@ -4218,7 +4431,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>61</v>
       </c>
@@ -4236,7 +4449,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>44682</v>
       </c>
@@ -4260,7 +4473,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -4282,7 +4495,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -4304,7 +4517,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>44713</v>
       </c>
@@ -4326,7 +4539,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -4348,7 +4561,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>44743</v>
       </c>
@@ -4372,7 +4585,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>44774</v>
       </c>
@@ -4396,7 +4609,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -4418,7 +4631,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>44805</v>
       </c>
@@ -4442,7 +4655,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>44835</v>
       </c>
@@ -4466,7 +4679,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -4486,7 +4699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>44866</v>
       </c>
@@ -4510,7 +4723,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -4532,7 +4745,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44896</v>
       </c>
@@ -4556,7 +4769,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>65</v>
       </c>
@@ -4574,7 +4787,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44927</v>
       </c>
@@ -4592,7 +4805,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44958</v>
       </c>
@@ -4614,7 +4827,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>45139</v>
       </c>
@@ -4638,7 +4851,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>45170</v>
       </c>
@@ -4662,11 +4875,17 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="20"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="40"/>
+      <c r="D49" s="40">
+        <v>2</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
@@ -4676,13 +4895,19 @@
       <c r="H49" s="40"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="40"/>
+      <c r="D50" s="40">
+        <v>1</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -4692,13 +4917,19 @@
       <c r="H50" s="40"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="48">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="40"/>
+      <c r="D51" s="40">
+        <v>2</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13" t="str">
@@ -4708,13 +4939,21 @@
       <c r="H51" s="40"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="40"/>
+      <c r="D52" s="40">
+        <v>1</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -4724,13 +4963,19 @@
       <c r="H52" s="40"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="48">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="40"/>
+      <c r="D53" s="40">
+        <v>1</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -4740,13 +4985,19 @@
       <c r="H53" s="40"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="48">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="40"/>
+      <c r="D54" s="40">
+        <v>1</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -4756,13 +5007,21 @@
       <c r="H54" s="40"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="20"/>
+      <c r="K54" s="48">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="41">
+        <v>45247</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="40"/>
+      <c r="D55" s="40">
+        <v>1</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -4772,13 +5031,19 @@
       <c r="H55" s="40"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="48">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="40"/>
+      <c r="D56" s="40">
+        <v>2</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -4788,13 +5053,21 @@
       <c r="H56" s="40"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="20"/>
+      <c r="K56" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="40"/>
+      <c r="D57" s="40">
+        <v>4</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -4804,13 +5077,19 @@
       <c r="H57" s="40"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C58" s="13"/>
-      <c r="D58" s="40"/>
+      <c r="D58" s="40">
+        <v>6</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13" t="str">
@@ -4820,13 +5099,19 @@
       <c r="H58" s="40"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="40"/>
+      <c r="D59" s="40">
+        <v>2</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13" t="str">
@@ -4836,9 +5121,11 @@
       <c r="H59" s="40"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4854,7 +5141,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4870,7 +5157,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4886,7 +5173,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="42"/>
       <c r="B63" s="15"/>
       <c r="C63" s="43"/>
@@ -4917,10 +5204,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4943,7 +5230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4951,21 +5238,21 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4978,7 +5265,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5007,7 +5294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>33.956000000000003</v>
       </c>
@@ -5033,7 +5320,7 @@
         <v>0.83300000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5048,10 +5335,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5071,7 +5358,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5097,7 +5384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5123,7 +5410,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5149,7 +5436,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5175,7 +5462,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5201,7 +5488,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5227,7 +5514,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5253,7 +5540,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5279,7 +5566,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5299,7 +5586,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5319,7 +5606,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5339,7 +5626,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5360,7 +5647,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5381,7 +5668,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5402,7 +5689,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5423,7 +5710,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5444,7 +5731,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5465,7 +5752,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5486,7 +5773,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5507,7 +5794,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5528,7 +5815,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5549,7 +5836,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5570,7 +5857,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5591,7 +5878,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5612,7 +5899,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5633,7 +5920,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5654,7 +5941,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5675,7 +5962,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5696,7 +5983,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5717,7 +6004,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5738,7 +6025,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5759,7 +6046,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5768,7 +6055,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5777,7 +6064,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5786,7 +6073,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -5795,7 +6082,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -5804,7 +6091,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -5813,7 +6100,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -5822,7 +6109,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -5831,7 +6118,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -5840,7 +6127,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -5849,7 +6136,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -5858,7 +6145,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -5867,7 +6154,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -5876,7 +6163,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -5885,7 +6172,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -5894,7 +6181,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -5903,7 +6190,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -5912,7 +6199,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -5921,7 +6208,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -5930,7 +6217,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -5939,7 +6226,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -5948,7 +6235,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -5957,7 +6244,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -5966,7 +6253,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -5975,7 +6262,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -5984,7 +6271,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -5993,7 +6280,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6002,7 +6289,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6011,7 +6298,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6020,7 +6307,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
